--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -97,46 +97,49 @@
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
@@ -145,28 +148,22 @@
     <t>gt</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +614,13 @@
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -767,13 +764,13 @@
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +864,13 @@
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5686274509803921</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5251937984496124</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C10">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D10">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8028169014084507</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3733333333333334</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.253968253968254</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1474530831099196</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,37 +1240,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0103126007089913</v>
+        <v>0.009987113402061855</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F16">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7830188679245284</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1319,13 +1316,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1345,13 +1342,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1371,13 +1368,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1397,13 +1394,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6264705882352941</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1415,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1423,13 +1420,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1441,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1449,13 +1446,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1467,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1475,13 +1472,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5932203389830508</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L24">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1493,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1501,13 +1498,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5815899581589958</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1527,13 +1524,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1553,13 +1550,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1579,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5285714285714286</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1597,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1605,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.4943820224719101</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,33 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
